--- a/StuWork ToDo.xlsx
+++ b/StuWork ToDo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11650" windowHeight="5980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,10 +484,6 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="e">
-        <f>--- Indicate Done</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">

--- a/StuWork ToDo.xlsx
+++ b/StuWork ToDo.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,6 +465,7 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="3"/>
       <c r="H2" t="s">
         <v>8</v>
       </c>
@@ -484,6 +485,7 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -495,6 +497,7 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
@@ -503,7 +506,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -517,78 +520,97 @@
         <v>12</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
